--- a/medicine/Psychotrope/Pagès_infusions/Pagès_infusions.xlsx
+++ b/medicine/Psychotrope/Pagès_infusions/Pagès_infusions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pag%C3%A8s_infusions</t>
+          <t>Pagès_infusions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PAGÈS infusions est une société spécialisée dans la production d’infusions et de thés à Espaly-Saint-Marcel, en Haute-Loire[1]. Son effectif est de 100 salariés[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAGÈS infusions est une société spécialisée dans la production d’infusions et de thés à Espaly-Saint-Marcel, en Haute-Loire. Son effectif est de 100 salariés.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pag%C3%A8s_infusions</t>
+          <t>Pagès_infusions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’entreprise a été créée en 1859 au Puy-en-Velay, par Joseph Rumillet-Charretier (1833-1916) [3], herboriste et apothicaire, à l’origine de la liqueur Verveine du Velay[4]. 
-Depuis le XIe siècle, l’emploi de la richesse florale de la Haute-Loire a donné naissance à un savoir-faire local [5]. Cette médecine pratiquée à l’Hôtel-Dieu reposait sur les bienfaits des plantes médicinales [6]. C’est à partir du XIXe siècle que la société PAGÈS infusion a hérité de cette tradition[7].
-Au fil du temps, l’entreprise s’est naturellement intéressée au thé [8], aujourd'hui la boisson la plus bue au monde juste après l'eau.
-D’abord réservés à la Restauration Hors Domicile (cafés, hôtels, restaurants) ses produits sont également distribués en Grandes Surfaces Alimentaires (hypermarchés et supermarchés) au rayon " Épicerie sucrée : boissons chaudes "[9].
-PAGÈS a reçu le Prix de l’usine alimentaire durable en 2014[10].
-En 2016, PAGÈS lance les premières infusions glacées du rayon " Épicerie sucrée ", l'infusion glacée Citron Citron Vert, l'infusion glacée Orange Sanguine et l'infusion glacée Menthe Citron [11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’entreprise a été créée en 1859 au Puy-en-Velay, par Joseph Rumillet-Charretier (1833-1916) , herboriste et apothicaire, à l’origine de la liqueur Verveine du Velay. 
+Depuis le XIe siècle, l’emploi de la richesse florale de la Haute-Loire a donné naissance à un savoir-faire local . Cette médecine pratiquée à l’Hôtel-Dieu reposait sur les bienfaits des plantes médicinales . C’est à partir du XIXe siècle que la société PAGÈS infusion a hérité de cette tradition.
+Au fil du temps, l’entreprise s’est naturellement intéressée au thé , aujourd'hui la boisson la plus bue au monde juste après l'eau.
+D’abord réservés à la Restauration Hors Domicile (cafés, hôtels, restaurants) ses produits sont également distribués en Grandes Surfaces Alimentaires (hypermarchés et supermarchés) au rayon " Épicerie sucrée : boissons chaudes ".
+PAGÈS a reçu le Prix de l’usine alimentaire durable en 2014.
+En 2016, PAGÈS lance les premières infusions glacées du rayon " Épicerie sucrée ", l'infusion glacée Citron Citron Vert, l'infusion glacée Orange Sanguine et l'infusion glacée Menthe Citron .
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pag%C3%A8s_infusions</t>
+          <t>Pagès_infusions</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Concurrents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux concurrents sont les thés Lipton et Éléphant et les marques La Tisanière et Twinings du groupe ABF (Associated British Foods), ainsi que les marques « 1336 » et « SCOP-TI » (bio) fabriquées par la coopérative SCOP-TI à l'usine de Gémenos.
 </t>
